--- a/state_results/Rivers/TokiahuruatJunction_9d42dd8ca2.xlsx
+++ b/state_results/Rivers/TokiahuruatJunction_9d42dd8ca2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U193"/>
+  <dimension ref="A1:U209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1150,21 +1150,21 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.00122</v>
+        <v>0.00126</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0024746769075737</v>
+        <v>0.0024890665423272</v>
       </c>
       <c r="H9" t="n">
         <v>0.0151654040351168</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0089</v>
+        <v>0.00895</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>0.00073</v>
+        <v>0.00075</v>
       </c>
       <c r="M9" t="n">
         <v>0.00458</v>
@@ -1231,21 +1231,21 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.00122</v>
+        <v>0.00126</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0024746769075737</v>
+        <v>0.0024890665423272</v>
       </c>
       <c r="H10" t="n">
         <v>0.0151654040351168</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0089</v>
+        <v>0.00895</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>0.00073</v>
+        <v>0.00075</v>
       </c>
       <c r="M10" t="n">
         <v>0.00458</v>
@@ -1315,7 +1315,7 @@
         <v>0.073</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0808749358570266</v>
+        <v>0.08092408653239599</v>
       </c>
       <c r="H11" t="n">
         <v>0.236</v>
@@ -1396,7 +1396,7 @@
         <v>0.073</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0808749358570266</v>
+        <v>0.08092408653239599</v>
       </c>
       <c r="H12" t="n">
         <v>0.236</v>
@@ -1470,10 +1470,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.0692</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0773793103448276</v>
+        <v>0.0773948275862069</v>
       </c>
       <c r="H13" t="n">
         <v>0.245</v>
@@ -1487,7 +1487,7 @@
         <v>0.033</v>
       </c>
       <c r="M13" t="n">
-        <v>0.13068</v>
+        <v>0.13086</v>
       </c>
       <c r="N13" t="n">
         <v>0.17086</v>
@@ -1547,10 +1547,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.0692</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0773793103448276</v>
+        <v>0.0773948275862069</v>
       </c>
       <c r="H14" t="n">
         <v>0.245</v>
@@ -1564,7 +1564,7 @@
         <v>0.033</v>
       </c>
       <c r="M14" t="n">
-        <v>0.13068</v>
+        <v>0.13086</v>
       </c>
       <c r="N14" t="n">
         <v>0.17086</v>
@@ -1627,7 +1627,7 @@
         <v>0.14</v>
       </c>
       <c r="G15" t="n">
-        <v>0.165671003413851</v>
+        <v>0.165692831438801</v>
       </c>
       <c r="H15" t="n">
         <v>0.62</v>
@@ -1704,7 +1704,7 @@
         <v>0.14</v>
       </c>
       <c r="G16" t="n">
-        <v>0.165671003413851</v>
+        <v>0.165692831438801</v>
       </c>
       <c r="H16" t="n">
         <v>0.62</v>
@@ -2441,18 +2441,18 @@
         <v>0.0021</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0026695498560174</v>
+        <v>0.0026822322292986</v>
       </c>
       <c r="H25" t="n">
         <v>0.0151654040351168</v>
       </c>
       <c r="I25" t="n">
-        <v>0.00561</v>
+        <v>0.00567</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
-        <v>0.00192</v>
+        <v>0.00191</v>
       </c>
       <c r="M25" t="n">
         <v>0.0046</v>
@@ -2522,18 +2522,18 @@
         <v>0.0021</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0026695498560174</v>
+        <v>0.0026822322292986</v>
       </c>
       <c r="H26" t="n">
         <v>0.0151654040351168</v>
       </c>
       <c r="I26" t="n">
-        <v>0.00561</v>
+        <v>0.00567</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
-        <v>0.00192</v>
+        <v>0.00191</v>
       </c>
       <c r="M26" t="n">
         <v>0.0046</v>
@@ -2603,7 +2603,7 @@
         <v>0.058</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0861676187838558</v>
+        <v>0.0862167694592252</v>
       </c>
       <c r="H27" t="n">
         <v>0.534</v>
@@ -2684,7 +2684,7 @@
         <v>0.058</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0861676187838558</v>
+        <v>0.0862167694592252</v>
       </c>
       <c r="H28" t="n">
         <v>0.534</v>
@@ -2761,7 +2761,7 @@
         <v>0.051</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0817758620689655</v>
+        <v>0.0817913793103448</v>
       </c>
       <c r="H29" t="n">
         <v>0.543</v>
@@ -2775,7 +2775,7 @@
         <v>0.033</v>
       </c>
       <c r="M29" t="n">
-        <v>0.13068</v>
+        <v>0.13086</v>
       </c>
       <c r="N29" t="n">
         <v>0.19876</v>
@@ -2838,7 +2838,7 @@
         <v>0.051</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0817758620689655</v>
+        <v>0.0817913793103448</v>
       </c>
       <c r="H30" t="n">
         <v>0.543</v>
@@ -2852,7 +2852,7 @@
         <v>0.033</v>
       </c>
       <c r="M30" t="n">
-        <v>0.13068</v>
+        <v>0.13086</v>
       </c>
       <c r="N30" t="n">
         <v>0.19876</v>
@@ -2915,7 +2915,7 @@
         <v>0.14</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1770847965173</v>
+        <v>0.17710662454225</v>
       </c>
       <c r="H31" t="n">
         <v>0.63</v>
@@ -2992,7 +2992,7 @@
         <v>0.14</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1770847965173</v>
+        <v>0.17710662454225</v>
       </c>
       <c r="H32" t="n">
         <v>0.63</v>
@@ -3729,7 +3729,7 @@
         <v>0.0415</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0694974474027618</v>
+        <v>0.0695377509565647</v>
       </c>
       <c r="H41" t="n">
         <v>0.534</v>
@@ -3810,7 +3810,7 @@
         <v>0.0415</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0694974474027618</v>
+        <v>0.0695377509565647</v>
       </c>
       <c r="H42" t="n">
         <v>0.534</v>
@@ -3887,7 +3887,7 @@
         <v>0.0455</v>
       </c>
       <c r="G43" t="n">
-        <v>0.07343333333333329</v>
+        <v>0.0734433333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0.543</v>
@@ -3901,7 +3901,7 @@
         <v>0.028</v>
       </c>
       <c r="M43" t="n">
-        <v>0.1093</v>
+        <v>0.10944</v>
       </c>
       <c r="N43" t="n">
         <v>0.192</v>
@@ -3964,7 +3964,7 @@
         <v>0.0455</v>
       </c>
       <c r="G44" t="n">
-        <v>0.07343333333333329</v>
+        <v>0.0734433333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0.543</v>
@@ -3978,7 +3978,7 @@
         <v>0.028</v>
       </c>
       <c r="M44" t="n">
-        <v>0.1093</v>
+        <v>0.10944</v>
       </c>
       <c r="N44" t="n">
         <v>0.192</v>
@@ -4041,7 +4041,7 @@
         <v>0.14</v>
       </c>
       <c r="G45" t="n">
-        <v>0.171781969966723</v>
+        <v>0.171803070390841</v>
       </c>
       <c r="H45" t="n">
         <v>0.63</v>
@@ -4118,7 +4118,7 @@
         <v>0.14</v>
       </c>
       <c r="G46" t="n">
-        <v>0.171781969966723</v>
+        <v>0.171803070390841</v>
       </c>
       <c r="H46" t="n">
         <v>0.63</v>
@@ -4855,7 +4855,7 @@
         <v>0.03965</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0646945395023015</v>
+        <v>0.0647281257971372</v>
       </c>
       <c r="H55" t="n">
         <v>0.534</v>
@@ -4866,7 +4866,7 @@
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
-        <v>0.0077</v>
+        <v>0.00822</v>
       </c>
       <c r="M55" t="n">
         <v>0.10076</v>
@@ -4936,7 +4936,7 @@
         <v>0.03965</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0646945395023015</v>
+        <v>0.0647281257971372</v>
       </c>
       <c r="H56" t="n">
         <v>0.534</v>
@@ -4947,7 +4947,7 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
-        <v>0.0077</v>
+        <v>0.00822</v>
       </c>
       <c r="M56" t="n">
         <v>0.10076</v>
@@ -5024,10 +5024,10 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
-        <v>0.0135</v>
+        <v>0.01375</v>
       </c>
       <c r="M57" t="n">
-        <v>0.1093</v>
+        <v>0.10944</v>
       </c>
       <c r="N57" t="n">
         <v>0.1869</v>
@@ -5101,10 +5101,10 @@
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
-        <v>0.0135</v>
+        <v>0.01375</v>
       </c>
       <c r="M58" t="n">
-        <v>0.1093</v>
+        <v>0.10944</v>
       </c>
       <c r="N58" t="n">
         <v>0.1869</v>
@@ -5981,7 +5981,7 @@
         <v>0.0415</v>
       </c>
       <c r="G69" t="n">
-        <v>0.06298069397729419</v>
+        <v>0.0629921082231291</v>
       </c>
       <c r="H69" t="n">
         <v>0.534</v>
@@ -5992,7 +5992,7 @@
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
-        <v>0.00292</v>
+        <v>0.00311</v>
       </c>
       <c r="M69" t="n">
         <v>0.09364</v>
@@ -6062,7 +6062,7 @@
         <v>0.0415</v>
       </c>
       <c r="G70" t="n">
-        <v>0.06298069397729419</v>
+        <v>0.0629921082231291</v>
       </c>
       <c r="H70" t="n">
         <v>0.534</v>
@@ -6073,7 +6073,7 @@
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
-        <v>0.00292</v>
+        <v>0.00311</v>
       </c>
       <c r="M70" t="n">
         <v>0.09364</v>
@@ -6136,10 +6136,10 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0.0505</v>
+        <v>0.05045</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0704865072358444</v>
+        <v>0.0704542704099594</v>
       </c>
       <c r="H71" t="n">
         <v>0.543</v>
@@ -6153,10 +6153,10 @@
         <v>0.0125</v>
       </c>
       <c r="M71" t="n">
-        <v>0.1041</v>
+        <v>0.10395</v>
       </c>
       <c r="N71" t="n">
-        <v>0.1834</v>
+        <v>0.18354</v>
       </c>
       <c r="O71" t="n">
         <v>1811751.109</v>
@@ -6213,10 +6213,10 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0.0505</v>
+        <v>0.05045</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0704865072358444</v>
+        <v>0.0704542704099594</v>
       </c>
       <c r="H72" t="n">
         <v>0.543</v>
@@ -6230,10 +6230,10 @@
         <v>0.0125</v>
       </c>
       <c r="M72" t="n">
-        <v>0.1041</v>
+        <v>0.10395</v>
       </c>
       <c r="N72" t="n">
-        <v>0.1834</v>
+        <v>0.18354</v>
       </c>
       <c r="O72" t="n">
         <v>1811751.109</v>
@@ -7104,10 +7104,10 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.00151</v>
+        <v>0.00156</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0022093675680687</v>
+        <v>0.002236103838232</v>
       </c>
       <c r="H83" t="n">
         <v>0.0111063674652512</v>
@@ -7118,10 +7118,10 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
-        <v>0.00133</v>
+        <v>0.00138</v>
       </c>
       <c r="M83" t="n">
-        <v>0.00261</v>
+        <v>0.00269</v>
       </c>
       <c r="N83" t="n">
         <v>0.00792</v>
@@ -7185,10 +7185,10 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.00151</v>
+        <v>0.00156</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0022093675680687</v>
+        <v>0.002236103838232</v>
       </c>
       <c r="H84" t="n">
         <v>0.0111063674652512</v>
@@ -7199,10 +7199,10 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
-        <v>0.00133</v>
+        <v>0.00138</v>
       </c>
       <c r="M84" t="n">
-        <v>0.00261</v>
+        <v>0.00269</v>
       </c>
       <c r="N84" t="n">
         <v>0.00792</v>
@@ -7269,7 +7269,7 @@
         <v>0.03865</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0590345401503553</v>
+        <v>0.0590602044336278</v>
       </c>
       <c r="H85" t="n">
         <v>0.534</v>
@@ -7280,7 +7280,7 @@
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
-        <v>0.00292</v>
+        <v>0.00311</v>
       </c>
       <c r="M85" t="n">
         <v>0.10076</v>
@@ -7350,7 +7350,7 @@
         <v>0.03865</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0590345401503553</v>
+        <v>0.0590602044336278</v>
       </c>
       <c r="H86" t="n">
         <v>0.534</v>
@@ -7361,7 +7361,7 @@
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
-        <v>0.00292</v>
+        <v>0.00311</v>
       </c>
       <c r="M86" t="n">
         <v>0.10076</v>
@@ -7424,24 +7424,24 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.0455</v>
+        <v>0.0454</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0662890530830329</v>
+        <v>0.0662611170999005</v>
       </c>
       <c r="H87" t="n">
         <v>0.543</v>
       </c>
       <c r="I87" t="n">
-        <v>0.1985</v>
+        <v>0.1986</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
-        <v>0.00908</v>
+        <v>0.009209999999999999</v>
       </c>
       <c r="M87" t="n">
-        <v>0.1093</v>
+        <v>0.10944</v>
       </c>
       <c r="N87" t="n">
         <v>0.1757</v>
@@ -7501,24 +7501,24 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0.0455</v>
+        <v>0.0454</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0662890530830329</v>
+        <v>0.0662611170999005</v>
       </c>
       <c r="H88" t="n">
         <v>0.543</v>
       </c>
       <c r="I88" t="n">
-        <v>0.1985</v>
+        <v>0.1986</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
-        <v>0.00908</v>
+        <v>0.009209999999999999</v>
       </c>
       <c r="M88" t="n">
-        <v>0.1093</v>
+        <v>0.10944</v>
       </c>
       <c r="N88" t="n">
         <v>0.1757</v>
@@ -7893,13 +7893,13 @@
         <v>1</v>
       </c>
       <c r="G93" t="n">
-        <v>1.21252074118712</v>
+        <v>1.17947104207718</v>
       </c>
       <c r="H93" t="n">
-        <v>3.04322594154931</v>
+        <v>3</v>
       </c>
       <c r="I93" t="n">
-        <v>2.875</v>
+        <v>2.425</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -7910,7 +7910,7 @@
         <v>1.6</v>
       </c>
       <c r="N93" t="n">
-        <v>2.41</v>
+        <v>2.10595</v>
       </c>
       <c r="O93" t="n">
         <v>1811751.109</v>
@@ -8473,10 +8473,10 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0.00186</v>
+        <v>0.00191</v>
       </c>
       <c r="G100" t="n">
-        <v>0.004586959230639</v>
+        <v>0.0046204253146933</v>
       </c>
       <c r="H100" t="n">
         <v>0.104957124959391</v>
@@ -8487,10 +8487,10 @@
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
-        <v>0.00168</v>
+        <v>0.00173</v>
       </c>
       <c r="M100" t="n">
-        <v>0.00339</v>
+        <v>0.00346</v>
       </c>
       <c r="N100" t="n">
         <v>0.008059999999999999</v>
@@ -8554,10 +8554,10 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0.00186</v>
+        <v>0.00191</v>
       </c>
       <c r="G101" t="n">
-        <v>0.004586959230639</v>
+        <v>0.0046204253146933</v>
       </c>
       <c r="H101" t="n">
         <v>0.104957124959391</v>
@@ -8568,10 +8568,10 @@
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
-        <v>0.00168</v>
+        <v>0.00173</v>
       </c>
       <c r="M101" t="n">
-        <v>0.00339</v>
+        <v>0.00346</v>
       </c>
       <c r="N101" t="n">
         <v>0.008059999999999999</v>
@@ -8638,7 +8638,7 @@
         <v>0.04065</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0518845401503553</v>
+        <v>0.0519102044336278</v>
       </c>
       <c r="H102" t="n">
         <v>0.1917</v>
@@ -8649,7 +8649,7 @@
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
-        <v>0.00292</v>
+        <v>0.00311</v>
       </c>
       <c r="M102" t="n">
         <v>0.10196</v>
@@ -8719,7 +8719,7 @@
         <v>0.04065</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0518845401503553</v>
+        <v>0.0519102044336278</v>
       </c>
       <c r="H103" t="n">
         <v>0.1917</v>
@@ -8730,7 +8730,7 @@
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
-        <v>0.00292</v>
+        <v>0.00311</v>
       </c>
       <c r="M103" t="n">
         <v>0.10196</v>
@@ -8793,10 +8793,10 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0.0455</v>
+        <v>0.0454</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0602057197496996</v>
+        <v>0.0601777837665671</v>
       </c>
       <c r="H104" t="n">
         <v>0.25</v>
@@ -8807,13 +8807,13 @@
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
-        <v>0.00908</v>
+        <v>0.009209999999999999</v>
       </c>
       <c r="M104" t="n">
-        <v>0.1108</v>
+        <v>0.11094</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1485</v>
+        <v>0.14857</v>
       </c>
       <c r="O104" t="n">
         <v>1811751.109</v>
@@ -8870,10 +8870,10 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0.0455</v>
+        <v>0.0454</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0602057197496996</v>
+        <v>0.0601777837665671</v>
       </c>
       <c r="H105" t="n">
         <v>0.25</v>
@@ -8884,13 +8884,13 @@
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
-        <v>0.00908</v>
+        <v>0.009209999999999999</v>
       </c>
       <c r="M105" t="n">
-        <v>0.1108</v>
+        <v>0.11094</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1485</v>
+        <v>0.14857</v>
       </c>
       <c r="O105" t="n">
         <v>1811751.109</v>
@@ -9262,13 +9262,13 @@
         <v>1.03</v>
       </c>
       <c r="G110" t="n">
-        <v>1.18561360742499</v>
+        <v>1.16046709723263</v>
       </c>
       <c r="H110" t="n">
-        <v>3.04322594154931</v>
+        <v>3</v>
       </c>
       <c r="I110" t="n">
-        <v>2.6</v>
+        <v>2.26</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -9279,7 +9279,7 @@
         <v>1.6</v>
       </c>
       <c r="N110" t="n">
-        <v>2.128</v>
+        <v>1.87092</v>
       </c>
       <c r="O110" t="n">
         <v>1811751.109</v>
@@ -9505,7 +9505,7 @@
         <v>69</v>
       </c>
       <c r="G113" t="n">
-        <v>276.353337927355</v>
+        <v>276.347301013576</v>
       </c>
       <c r="H113" t="n">
         <v>9080</v>
@@ -9590,7 +9590,7 @@
         <v>69</v>
       </c>
       <c r="G114" t="n">
-        <v>276.353337927355</v>
+        <v>276.347301013576</v>
       </c>
       <c r="H114" t="n">
         <v>9080</v>
@@ -9675,7 +9675,7 @@
         <v>69</v>
       </c>
       <c r="G115" t="n">
-        <v>276.353337927355</v>
+        <v>276.347301013576</v>
       </c>
       <c r="H115" t="n">
         <v>9080</v>
@@ -9760,7 +9760,7 @@
         <v>69</v>
       </c>
       <c r="G116" t="n">
-        <v>276.353337927355</v>
+        <v>276.347301013576</v>
       </c>
       <c r="H116" t="n">
         <v>9080</v>
@@ -9842,10 +9842,10 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>0.00214</v>
+        <v>0.00218</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0043346142911776</v>
+        <v>0.0043714460944013</v>
       </c>
       <c r="H117" t="n">
         <v>0.104957124959391</v>
@@ -9856,10 +9856,10 @@
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
-        <v>0.0019</v>
+        <v>0.00196</v>
       </c>
       <c r="M117" t="n">
-        <v>0.00361</v>
+        <v>0.00367</v>
       </c>
       <c r="N117" t="n">
         <v>0.00495</v>
@@ -9923,10 +9923,10 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>0.00214</v>
+        <v>0.00218</v>
       </c>
       <c r="G118" t="n">
-        <v>0.0043346142911776</v>
+        <v>0.0043714460944013</v>
       </c>
       <c r="H118" t="n">
         <v>0.104957124959391</v>
@@ -9937,10 +9937,10 @@
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
-        <v>0.0019</v>
+        <v>0.00196</v>
       </c>
       <c r="M118" t="n">
-        <v>0.00361</v>
+        <v>0.00367</v>
       </c>
       <c r="N118" t="n">
         <v>0.00495</v>
@@ -10007,7 +10007,7 @@
         <v>0.0498</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0655678734836886</v>
+        <v>0.0655935377669612</v>
       </c>
       <c r="H119" t="n">
         <v>0.251</v>
@@ -10088,7 +10088,7 @@
         <v>0.0498</v>
       </c>
       <c r="G120" t="n">
-        <v>0.0655678734836886</v>
+        <v>0.0655935377669612</v>
       </c>
       <c r="H120" t="n">
         <v>0.251</v>
@@ -10162,16 +10162,16 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>0.0605</v>
+        <v>0.06045</v>
       </c>
       <c r="G121" t="n">
-        <v>0.0743390530830329</v>
+        <v>0.0743144504332338</v>
       </c>
       <c r="H121" t="n">
         <v>0.265</v>
       </c>
       <c r="I121" t="n">
-        <v>0.1905</v>
+        <v>0.1906</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -10239,16 +10239,16 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>0.0605</v>
+        <v>0.06045</v>
       </c>
       <c r="G122" t="n">
-        <v>0.0743390530830329</v>
+        <v>0.0743144504332338</v>
       </c>
       <c r="H122" t="n">
         <v>0.265</v>
       </c>
       <c r="I122" t="n">
-        <v>0.1905</v>
+        <v>0.1906</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
@@ -10631,13 +10631,13 @@
         <v>1.03</v>
       </c>
       <c r="G127" t="n">
-        <v>1.16233215384233</v>
+        <v>1.13572239610218</v>
       </c>
       <c r="H127" t="n">
-        <v>3.04322594154931</v>
+        <v>2.5</v>
       </c>
       <c r="I127" t="n">
-        <v>2.29</v>
+        <v>1.98054</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>1.6</v>
       </c>
       <c r="N127" t="n">
-        <v>1.79959</v>
+        <v>1.79931</v>
       </c>
       <c r="O127" t="n">
         <v>1811751.109</v>
@@ -10874,7 +10874,7 @@
         <v>64</v>
       </c>
       <c r="G130" t="n">
-        <v>121.658422673118</v>
+        <v>121.652385759339</v>
       </c>
       <c r="H130" t="n">
         <v>770</v>
@@ -10959,7 +10959,7 @@
         <v>64</v>
       </c>
       <c r="G131" t="n">
-        <v>121.658422673118</v>
+        <v>121.652385759339</v>
       </c>
       <c r="H131" t="n">
         <v>770</v>
@@ -11044,7 +11044,7 @@
         <v>64</v>
       </c>
       <c r="G132" t="n">
-        <v>121.658422673118</v>
+        <v>121.652385759339</v>
       </c>
       <c r="H132" t="n">
         <v>770</v>
@@ -11129,7 +11129,7 @@
         <v>64</v>
       </c>
       <c r="G133" t="n">
-        <v>121.658422673118</v>
+        <v>121.652385759339</v>
       </c>
       <c r="H133" t="n">
         <v>770</v>
@@ -11211,27 +11211,27 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>0.00268</v>
+        <v>0.00275</v>
       </c>
       <c r="G134" t="n">
-        <v>0.0048535817265496</v>
+        <v>0.004896893144565</v>
       </c>
       <c r="H134" t="n">
         <v>0.104957124959391</v>
       </c>
       <c r="I134" t="n">
-        <v>0.009310000000000001</v>
+        <v>0.00932</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
-        <v>0.00233</v>
+        <v>0.00237</v>
       </c>
       <c r="M134" t="n">
-        <v>0.00454</v>
+        <v>0.00461</v>
       </c>
       <c r="N134" t="n">
-        <v>0.0066</v>
+        <v>0.00664</v>
       </c>
       <c r="O134" t="n">
         <v>1811751.109</v>
@@ -11292,27 +11292,27 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>0.00268</v>
+        <v>0.00275</v>
       </c>
       <c r="G135" t="n">
-        <v>0.0048535817265496</v>
+        <v>0.004896893144565</v>
       </c>
       <c r="H135" t="n">
         <v>0.104957124959391</v>
       </c>
       <c r="I135" t="n">
-        <v>0.009310000000000001</v>
+        <v>0.00932</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
-        <v>0.00233</v>
+        <v>0.00237</v>
       </c>
       <c r="M135" t="n">
-        <v>0.00454</v>
+        <v>0.00461</v>
       </c>
       <c r="N135" t="n">
-        <v>0.0066</v>
+        <v>0.00664</v>
       </c>
       <c r="O135" t="n">
         <v>1811751.109</v>
@@ -11376,7 +11376,7 @@
         <v>0.0532</v>
       </c>
       <c r="G136" t="n">
-        <v>0.0689378734836886</v>
+        <v>0.06896353776696119</v>
       </c>
       <c r="H136" t="n">
         <v>0.251</v>
@@ -11457,7 +11457,7 @@
         <v>0.0532</v>
       </c>
       <c r="G137" t="n">
-        <v>0.0689378734836886</v>
+        <v>0.06896353776696119</v>
       </c>
       <c r="H137" t="n">
         <v>0.251</v>
@@ -11531,16 +11531,16 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>0.062</v>
+        <v>0.06205</v>
       </c>
       <c r="G138" t="n">
-        <v>0.0777723864163662</v>
+        <v>0.0777661170999005</v>
       </c>
       <c r="H138" t="n">
         <v>0.265</v>
       </c>
       <c r="I138" t="n">
-        <v>0.1905</v>
+        <v>0.1906</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
@@ -11608,16 +11608,16 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>0.062</v>
+        <v>0.06205</v>
       </c>
       <c r="G139" t="n">
-        <v>0.0777723864163662</v>
+        <v>0.0777661170999005</v>
       </c>
       <c r="H139" t="n">
         <v>0.265</v>
       </c>
       <c r="I139" t="n">
-        <v>0.1905</v>
+        <v>0.1906</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
@@ -12000,13 +12000,13 @@
         <v>1.2</v>
       </c>
       <c r="G144" t="n">
-        <v>1.20983215384233</v>
+        <v>1.18322239610218</v>
       </c>
       <c r="H144" t="n">
-        <v>3.04322594154931</v>
+        <v>2.5</v>
       </c>
       <c r="I144" t="n">
-        <v>2.29</v>
+        <v>2.06</v>
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
@@ -12014,10 +12014,10 @@
         <v>1.6</v>
       </c>
       <c r="M144" t="n">
-        <v>1.7798</v>
+        <v>1.76599</v>
       </c>
       <c r="N144" t="n">
-        <v>1.996</v>
+        <v>1.88476</v>
       </c>
       <c r="O144" t="n">
         <v>1811751.109</v>
@@ -12243,7 +12243,7 @@
         <v>70</v>
       </c>
       <c r="G147" t="n">
-        <v>139.539778605322</v>
+        <v>139.533741691542</v>
       </c>
       <c r="H147" t="n">
         <v>770</v>
@@ -12328,7 +12328,7 @@
         <v>70</v>
       </c>
       <c r="G148" t="n">
-        <v>139.539778605322</v>
+        <v>139.533741691542</v>
       </c>
       <c r="H148" t="n">
         <v>770</v>
@@ -12413,7 +12413,7 @@
         <v>70</v>
       </c>
       <c r="G149" t="n">
-        <v>139.539778605322</v>
+        <v>139.533741691542</v>
       </c>
       <c r="H149" t="n">
         <v>770</v>
@@ -12498,7 +12498,7 @@
         <v>70</v>
       </c>
       <c r="G150" t="n">
-        <v>139.539778605322</v>
+        <v>139.533741691542</v>
       </c>
       <c r="H150" t="n">
         <v>770</v>
@@ -12580,27 +12580,27 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>0.00299</v>
+        <v>0.00301</v>
       </c>
       <c r="G151" t="n">
-        <v>0.0052696987913581</v>
+        <v>0.0053113581474205</v>
       </c>
       <c r="H151" t="n">
         <v>0.104957124959391</v>
       </c>
       <c r="I151" t="n">
-        <v>0.008160000000000001</v>
+        <v>0.008189999999999999</v>
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
-        <v>0.00275</v>
+        <v>0.00278</v>
       </c>
       <c r="M151" t="n">
         <v>0.00524</v>
       </c>
       <c r="N151" t="n">
-        <v>0.00672</v>
+        <v>0.00675</v>
       </c>
       <c r="O151" t="n">
         <v>1811751.109</v>
@@ -12661,27 +12661,27 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>0.00299</v>
+        <v>0.00301</v>
       </c>
       <c r="G152" t="n">
-        <v>0.0052696987913581</v>
+        <v>0.0053113581474205</v>
       </c>
       <c r="H152" t="n">
         <v>0.104957124959391</v>
       </c>
       <c r="I152" t="n">
-        <v>0.008160000000000001</v>
+        <v>0.008189999999999999</v>
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
-        <v>0.00275</v>
+        <v>0.00278</v>
       </c>
       <c r="M152" t="n">
         <v>0.00524</v>
       </c>
       <c r="N152" t="n">
-        <v>0.00672</v>
+        <v>0.00675</v>
       </c>
       <c r="O152" t="n">
         <v>1811751.109</v>
@@ -12745,7 +12745,7 @@
         <v>0.057</v>
       </c>
       <c r="G153" t="n">
-        <v>0.071935597242321</v>
+        <v>0.071957971882396</v>
       </c>
       <c r="H153" t="n">
         <v>0.251</v>
@@ -12826,7 +12826,7 @@
         <v>0.057</v>
       </c>
       <c r="G154" t="n">
-        <v>0.071935597242321</v>
+        <v>0.071957971882396</v>
       </c>
       <c r="H154" t="n">
         <v>0.251</v>
@@ -12903,7 +12903,7 @@
         <v>0.065</v>
       </c>
       <c r="G155" t="n">
-        <v>0.0807001722452938</v>
+        <v>0.08072421891594821</v>
       </c>
       <c r="H155" t="n">
         <v>0.265</v>
@@ -12917,7 +12917,7 @@
         <v>0.04</v>
       </c>
       <c r="M155" t="n">
-        <v>0.13735</v>
+        <v>0.13759</v>
       </c>
       <c r="N155" t="n">
         <v>0.17278</v>
@@ -12980,7 +12980,7 @@
         <v>0.065</v>
       </c>
       <c r="G156" t="n">
-        <v>0.0807001722452938</v>
+        <v>0.08072421891594821</v>
       </c>
       <c r="H156" t="n">
         <v>0.265</v>
@@ -12994,7 +12994,7 @@
         <v>0.04</v>
       </c>
       <c r="M156" t="n">
-        <v>0.13735</v>
+        <v>0.13759</v>
       </c>
       <c r="N156" t="n">
         <v>0.17278</v>
@@ -13369,7 +13369,7 @@
         <v>1.15</v>
       </c>
       <c r="G161" t="n">
-        <v>1.14387191187536</v>
+        <v>1.14348052654985</v>
       </c>
       <c r="H161" t="n">
         <v>2.2</v>
@@ -13383,7 +13383,7 @@
         <v>1.6</v>
       </c>
       <c r="M161" t="n">
-        <v>1.66817</v>
+        <v>1.66281</v>
       </c>
       <c r="N161" t="n">
         <v>1.8</v>
@@ -13612,7 +13612,7 @@
         <v>96</v>
       </c>
       <c r="G164" t="n">
-        <v>138.726219283288</v>
+        <v>138.720182369508</v>
       </c>
       <c r="H164" t="n">
         <v>560</v>
@@ -13697,7 +13697,7 @@
         <v>96</v>
       </c>
       <c r="G165" t="n">
-        <v>138.726219283288</v>
+        <v>138.720182369508</v>
       </c>
       <c r="H165" t="n">
         <v>560</v>
@@ -13782,7 +13782,7 @@
         <v>96</v>
       </c>
       <c r="G166" t="n">
-        <v>138.726219283288</v>
+        <v>138.720182369508</v>
       </c>
       <c r="H166" t="n">
         <v>560</v>
@@ -13867,7 +13867,7 @@
         <v>96</v>
       </c>
       <c r="G167" t="n">
-        <v>138.726219283288</v>
+        <v>138.720182369508</v>
       </c>
       <c r="H167" t="n">
         <v>560</v>
@@ -13949,27 +13949,27 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>0.00301</v>
+        <v>0.00304</v>
       </c>
       <c r="G168" t="n">
-        <v>0.0051610923285332</v>
+        <v>0.0051908340172061</v>
       </c>
       <c r="H168" t="n">
         <v>0.104957124959391</v>
       </c>
       <c r="I168" t="n">
-        <v>0.00813</v>
+        <v>0.008160000000000001</v>
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
-        <v>0.00275</v>
+        <v>0.00278</v>
       </c>
       <c r="M168" t="n">
         <v>0.00524</v>
       </c>
       <c r="N168" t="n">
-        <v>0.00663</v>
+        <v>0.00667</v>
       </c>
       <c r="O168" t="n">
         <v>1811751.109</v>
@@ -14030,27 +14030,27 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>0.00301</v>
+        <v>0.00304</v>
       </c>
       <c r="G169" t="n">
-        <v>0.0051610923285332</v>
+        <v>0.0051908340172061</v>
       </c>
       <c r="H169" t="n">
         <v>0.104957124959391</v>
       </c>
       <c r="I169" t="n">
-        <v>0.00813</v>
+        <v>0.008160000000000001</v>
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
-        <v>0.00275</v>
+        <v>0.00278</v>
       </c>
       <c r="M169" t="n">
         <v>0.00524</v>
       </c>
       <c r="N169" t="n">
-        <v>0.00663</v>
+        <v>0.00667</v>
       </c>
       <c r="O169" t="n">
         <v>1811751.109</v>
@@ -14114,7 +14114,7 @@
         <v>0.059</v>
       </c>
       <c r="G170" t="n">
-        <v>0.074338465540903</v>
+        <v>0.0743463486174821</v>
       </c>
       <c r="H170" t="n">
         <v>0.251</v>
@@ -14195,7 +14195,7 @@
         <v>0.059</v>
       </c>
       <c r="G171" t="n">
-        <v>0.074338465540903</v>
+        <v>0.0743463486174821</v>
       </c>
       <c r="H171" t="n">
         <v>0.251</v>
@@ -14272,7 +14272,7 @@
         <v>0.065</v>
       </c>
       <c r="G172" t="n">
-        <v>0.082290803587136</v>
+        <v>0.08229352736685561</v>
       </c>
       <c r="H172" t="n">
         <v>0.265</v>
@@ -14349,7 +14349,7 @@
         <v>0.065</v>
       </c>
       <c r="G173" t="n">
-        <v>0.082290803587136</v>
+        <v>0.08229352736685561</v>
       </c>
       <c r="H173" t="n">
         <v>0.265</v>
@@ -14900,7 +14900,7 @@
         <v>101</v>
       </c>
       <c r="G180" t="n">
-        <v>158.58356789162</v>
+        <v>158.577426893121</v>
       </c>
       <c r="H180" t="n">
         <v>560</v>
@@ -14985,7 +14985,7 @@
         <v>101</v>
       </c>
       <c r="G181" t="n">
-        <v>158.58356789162</v>
+        <v>158.577426893121</v>
       </c>
       <c r="H181" t="n">
         <v>560</v>
@@ -15070,7 +15070,7 @@
         <v>101</v>
       </c>
       <c r="G182" t="n">
-        <v>158.58356789162</v>
+        <v>158.577426893121</v>
       </c>
       <c r="H182" t="n">
         <v>560</v>
@@ -15155,7 +15155,7 @@
         <v>101</v>
       </c>
       <c r="G183" t="n">
-        <v>158.58356789162</v>
+        <v>158.577426893121</v>
       </c>
       <c r="H183" t="n">
         <v>560</v>
@@ -15237,24 +15237,24 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>0.00336</v>
+        <v>0.00337</v>
       </c>
       <c r="G184" t="n">
-        <v>0.0036387374666246</v>
+        <v>0.003657742339655</v>
       </c>
       <c r="H184" t="n">
         <v>0.0115249192884262</v>
       </c>
       <c r="I184" t="n">
-        <v>0.008160000000000001</v>
+        <v>0.008189999999999999</v>
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
-        <v>0.00291</v>
+        <v>0.00292</v>
       </c>
       <c r="M184" t="n">
-        <v>0.00539</v>
+        <v>0.00545</v>
       </c>
       <c r="N184" t="n">
         <v>0.0069</v>
@@ -15318,24 +15318,24 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>0.00336</v>
+        <v>0.00337</v>
       </c>
       <c r="G185" t="n">
-        <v>0.0036387374666246</v>
+        <v>0.003657742339655</v>
       </c>
       <c r="H185" t="n">
         <v>0.0115249192884262</v>
       </c>
       <c r="I185" t="n">
-        <v>0.008160000000000001</v>
+        <v>0.008189999999999999</v>
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
-        <v>0.00291</v>
+        <v>0.00292</v>
       </c>
       <c r="M185" t="n">
-        <v>0.00539</v>
+        <v>0.00545</v>
       </c>
       <c r="N185" t="n">
         <v>0.0069</v>
@@ -15402,7 +15402,7 @@
         <v>0.057</v>
       </c>
       <c r="G186" t="n">
-        <v>0.0732876180832759</v>
+        <v>0.07329550115985491</v>
       </c>
       <c r="H186" t="n">
         <v>0.251</v>
@@ -15483,7 +15483,7 @@
         <v>0.057</v>
       </c>
       <c r="G187" t="n">
-        <v>0.0732876180832759</v>
+        <v>0.07329550115985491</v>
       </c>
       <c r="H187" t="n">
         <v>0.251</v>
@@ -15560,7 +15560,7 @@
         <v>0.063</v>
       </c>
       <c r="G188" t="n">
-        <v>0.0797484307057801</v>
+        <v>0.07974267990922849</v>
       </c>
       <c r="H188" t="n">
         <v>0.265</v>
@@ -15571,10 +15571,10 @@
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
-        <v>0.041</v>
+        <v>0.0405</v>
       </c>
       <c r="M188" t="n">
-        <v>0.13735</v>
+        <v>0.13759</v>
       </c>
       <c r="N188" t="n">
         <v>0.17046</v>
@@ -15637,7 +15637,7 @@
         <v>0.063</v>
       </c>
       <c r="G189" t="n">
-        <v>0.0797484307057801</v>
+        <v>0.07974267990922849</v>
       </c>
       <c r="H189" t="n">
         <v>0.265</v>
@@ -15648,10 +15648,10 @@
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
-        <v>0.041</v>
+        <v>0.0405</v>
       </c>
       <c r="M189" t="n">
-        <v>0.13735</v>
+        <v>0.13759</v>
       </c>
       <c r="N189" t="n">
         <v>0.17046</v>
@@ -15996,6 +15996,1294 @@
         </is>
       </c>
     </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Tokiahuru at Junction</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F194" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0.0614</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="M194" t="n">
+        <v>0.04847</v>
+      </c>
+      <c r="N194" t="n">
+        <v>0.05534</v>
+      </c>
+      <c r="O194" t="n">
+        <v>1811751.109</v>
+      </c>
+      <c r="P194" t="n">
+        <v>5625193.502</v>
+      </c>
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R194" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S194" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T194" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="U194" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Tokiahuru at Junction</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F195" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0.0614</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="M195" t="n">
+        <v>0.04847</v>
+      </c>
+      <c r="N195" t="n">
+        <v>0.05534</v>
+      </c>
+      <c r="O195" t="n">
+        <v>1811751.109</v>
+      </c>
+      <c r="P195" t="n">
+        <v>5625193.502</v>
+      </c>
+      <c r="Q195" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R195" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S195" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T195" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="U195" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Tokiahuru at Junction</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F196" t="n">
+        <v>99</v>
+      </c>
+      <c r="G196" t="n">
+        <v>167.035087719298</v>
+      </c>
+      <c r="H196" t="n">
+        <v>774</v>
+      </c>
+      <c r="I196" t="n">
+        <v>515.2</v>
+      </c>
+      <c r="J196" t="n">
+        <v>3.50877192982456</v>
+      </c>
+      <c r="K196" t="n">
+        <v>24.5614035087719</v>
+      </c>
+      <c r="L196" t="n">
+        <v>229.5</v>
+      </c>
+      <c r="M196" t="n">
+        <v>338.04</v>
+      </c>
+      <c r="N196" t="n">
+        <v>494.6</v>
+      </c>
+      <c r="O196" t="n">
+        <v>1811751.109</v>
+      </c>
+      <c r="P196" t="n">
+        <v>5625193.502</v>
+      </c>
+      <c r="Q196" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R196" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S196" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T196" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="U196" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Tokiahuru at Junction</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F197" t="n">
+        <v>99</v>
+      </c>
+      <c r="G197" t="n">
+        <v>167.035087719298</v>
+      </c>
+      <c r="H197" t="n">
+        <v>774</v>
+      </c>
+      <c r="I197" t="n">
+        <v>515.2</v>
+      </c>
+      <c r="J197" t="n">
+        <v>3.50877192982456</v>
+      </c>
+      <c r="K197" t="n">
+        <v>24.5614035087719</v>
+      </c>
+      <c r="L197" t="n">
+        <v>229.5</v>
+      </c>
+      <c r="M197" t="n">
+        <v>338.04</v>
+      </c>
+      <c r="N197" t="n">
+        <v>494.6</v>
+      </c>
+      <c r="O197" t="n">
+        <v>1811751.109</v>
+      </c>
+      <c r="P197" t="n">
+        <v>5625193.502</v>
+      </c>
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R197" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S197" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T197" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="U197" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Tokiahuru at Junction</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F198" t="n">
+        <v>99</v>
+      </c>
+      <c r="G198" t="n">
+        <v>167.035087719298</v>
+      </c>
+      <c r="H198" t="n">
+        <v>774</v>
+      </c>
+      <c r="I198" t="n">
+        <v>515.2</v>
+      </c>
+      <c r="J198" t="n">
+        <v>3.50877192982456</v>
+      </c>
+      <c r="K198" t="n">
+        <v>24.5614035087719</v>
+      </c>
+      <c r="L198" t="n">
+        <v>229.5</v>
+      </c>
+      <c r="M198" t="n">
+        <v>338.04</v>
+      </c>
+      <c r="N198" t="n">
+        <v>494.6</v>
+      </c>
+      <c r="O198" t="n">
+        <v>1811751.109</v>
+      </c>
+      <c r="P198" t="n">
+        <v>5625193.502</v>
+      </c>
+      <c r="Q198" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R198" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S198" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T198" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="U198" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Tokiahuru at Junction</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F199" t="n">
+        <v>99</v>
+      </c>
+      <c r="G199" t="n">
+        <v>167.035087719298</v>
+      </c>
+      <c r="H199" t="n">
+        <v>774</v>
+      </c>
+      <c r="I199" t="n">
+        <v>515.2</v>
+      </c>
+      <c r="J199" t="n">
+        <v>3.50877192982456</v>
+      </c>
+      <c r="K199" t="n">
+        <v>24.5614035087719</v>
+      </c>
+      <c r="L199" t="n">
+        <v>229.5</v>
+      </c>
+      <c r="M199" t="n">
+        <v>338.04</v>
+      </c>
+      <c r="N199" t="n">
+        <v>494.6</v>
+      </c>
+      <c r="O199" t="n">
+        <v>1811751.109</v>
+      </c>
+      <c r="P199" t="n">
+        <v>5625193.502</v>
+      </c>
+      <c r="Q199" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R199" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S199" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T199" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="U199" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Tokiahuru at Junction</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F200" t="n">
+        <v>0.00337</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0.0038439180614788</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0.0115249192884262</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>0.00276</v>
+      </c>
+      <c r="M200" t="n">
+        <v>0.00664</v>
+      </c>
+      <c r="N200" t="n">
+        <v>0.00835</v>
+      </c>
+      <c r="O200" t="n">
+        <v>1811751.109</v>
+      </c>
+      <c r="P200" t="n">
+        <v>5625193.502</v>
+      </c>
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R200" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S200" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T200" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="U200" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Tokiahuru at Junction</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F201" t="n">
+        <v>0.00337</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0.0038439180614788</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0.0115249192884262</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>0.00276</v>
+      </c>
+      <c r="M201" t="n">
+        <v>0.00664</v>
+      </c>
+      <c r="N201" t="n">
+        <v>0.00835</v>
+      </c>
+      <c r="O201" t="n">
+        <v>1811751.109</v>
+      </c>
+      <c r="P201" t="n">
+        <v>5625193.502</v>
+      </c>
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R201" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S201" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T201" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="U201" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Tokiahuru at Junction</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F202" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0.0675836367530753</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0.1582</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>0.0345</v>
+      </c>
+      <c r="M202" t="n">
+        <v>0.10947</v>
+      </c>
+      <c r="N202" t="n">
+        <v>0.1509</v>
+      </c>
+      <c r="O202" t="n">
+        <v>1811751.109</v>
+      </c>
+      <c r="P202" t="n">
+        <v>5625193.502</v>
+      </c>
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R202" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S202" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T202" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="U202" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Tokiahuru at Junction</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F203" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0.0675836367530753</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0.1582</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>0.0345</v>
+      </c>
+      <c r="M203" t="n">
+        <v>0.10947</v>
+      </c>
+      <c r="N203" t="n">
+        <v>0.1509</v>
+      </c>
+      <c r="O203" t="n">
+        <v>1811751.109</v>
+      </c>
+      <c r="P203" t="n">
+        <v>5625193.502</v>
+      </c>
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R203" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S203" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T203" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="U203" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Tokiahuru at Junction</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr"/>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F204" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0.0737765782143132</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0.16885</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>0.0405</v>
+      </c>
+      <c r="M204" t="n">
+        <v>0.11494</v>
+      </c>
+      <c r="N204" t="n">
+        <v>0.15612</v>
+      </c>
+      <c r="O204" t="n">
+        <v>1811751.109</v>
+      </c>
+      <c r="P204" t="n">
+        <v>5625193.502</v>
+      </c>
+      <c r="Q204" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R204" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S204" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T204" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="U204" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Tokiahuru at Junction</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr"/>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F205" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="G205" t="n">
+        <v>0.0737765782143132</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0.16885</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>0.0405</v>
+      </c>
+      <c r="M205" t="n">
+        <v>0.11494</v>
+      </c>
+      <c r="N205" t="n">
+        <v>0.15612</v>
+      </c>
+      <c r="O205" t="n">
+        <v>1811751.109</v>
+      </c>
+      <c r="P205" t="n">
+        <v>5625193.502</v>
+      </c>
+      <c r="Q205" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R205" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S205" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T205" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="U205" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Tokiahuru at Junction</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr"/>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F206" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0.163050847457627</v>
+      </c>
+      <c r="H206" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0.2455</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="M206" t="n">
+        <v>0.2147</v>
+      </c>
+      <c r="N206" t="n">
+        <v>0.2378</v>
+      </c>
+      <c r="O206" t="n">
+        <v>1811751.109</v>
+      </c>
+      <c r="P206" t="n">
+        <v>5625193.502</v>
+      </c>
+      <c r="Q206" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R206" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S206" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T206" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="U206" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Tokiahuru at Junction</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr"/>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F207" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0.163050847457627</v>
+      </c>
+      <c r="H207" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0.2455</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="M207" t="n">
+        <v>0.2147</v>
+      </c>
+      <c r="N207" t="n">
+        <v>0.2378</v>
+      </c>
+      <c r="O207" t="n">
+        <v>1811751.109</v>
+      </c>
+      <c r="P207" t="n">
+        <v>5625193.502</v>
+      </c>
+      <c r="Q207" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R207" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S207" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T207" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="U207" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Tokiahuru at Junction</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr"/>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F208" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="G208" t="n">
+        <v>0.0588305084745763</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="M208" t="n">
+        <v>0.06394</v>
+      </c>
+      <c r="N208" t="n">
+        <v>0.07078</v>
+      </c>
+      <c r="O208" t="n">
+        <v>1811751.109</v>
+      </c>
+      <c r="P208" t="n">
+        <v>5625193.502</v>
+      </c>
+      <c r="Q208" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R208" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S208" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T208" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="U208" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Tokiahuru at Junction</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr"/>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F209" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="G209" t="n">
+        <v>0.0588305084745763</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="M209" t="n">
+        <v>0.06394</v>
+      </c>
+      <c r="N209" t="n">
+        <v>0.07078</v>
+      </c>
+      <c r="O209" t="n">
+        <v>1811751.109</v>
+      </c>
+      <c r="P209" t="n">
+        <v>5625193.502</v>
+      </c>
+      <c r="Q209" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R209" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S209" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T209" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="U209" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/TokiahuruatJunction_9d42dd8ca2.xlsx
+++ b/state_results/Rivers/TokiahuruatJunction_9d42dd8ca2.xlsx
@@ -7893,13 +7893,13 @@
         <v>1</v>
       </c>
       <c r="G93" t="n">
-        <v>1.17947104207718</v>
+        <v>1.21142867155051</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>3.00500350426801</v>
       </c>
       <c r="I93" t="n">
-        <v>2.425</v>
+        <v>2.875</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -7910,7 +7910,7 @@
         <v>1.6</v>
       </c>
       <c r="N93" t="n">
-        <v>2.10595</v>
+        <v>2.41</v>
       </c>
       <c r="O93" t="n">
         <v>1811751.109</v>
@@ -9262,13 +9262,13 @@
         <v>1.03</v>
       </c>
       <c r="G110" t="n">
-        <v>1.16046709723263</v>
+        <v>1.18478268487539</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>3.00500350426801</v>
       </c>
       <c r="I110" t="n">
-        <v>2.26</v>
+        <v>2.6</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -9279,7 +9279,7 @@
         <v>1.6</v>
       </c>
       <c r="N110" t="n">
-        <v>1.87092</v>
+        <v>2.128</v>
       </c>
       <c r="O110" t="n">
         <v>1811751.109</v>
@@ -10631,13 +10631,13 @@
         <v>1.03</v>
       </c>
       <c r="G127" t="n">
-        <v>1.13572239610218</v>
+        <v>1.17604235974642</v>
       </c>
       <c r="H127" t="n">
-        <v>2.5</v>
+        <v>3.00500350426801</v>
       </c>
       <c r="I127" t="n">
-        <v>1.98054</v>
+        <v>2.4446</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>1.6</v>
       </c>
       <c r="N127" t="n">
-        <v>1.79931</v>
+        <v>2.192</v>
       </c>
       <c r="O127" t="n">
         <v>1811751.109</v>
@@ -12000,13 +12000,13 @@
         <v>1.2</v>
       </c>
       <c r="G144" t="n">
-        <v>1.18322239610218</v>
+        <v>1.22354235974642</v>
       </c>
       <c r="H144" t="n">
-        <v>2.5</v>
+        <v>3.00500350426801</v>
       </c>
       <c r="I144" t="n">
-        <v>2.06</v>
+        <v>2.4446</v>
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
@@ -12014,10 +12014,10 @@
         <v>1.6</v>
       </c>
       <c r="M144" t="n">
-        <v>1.76599</v>
+        <v>1.8</v>
       </c>
       <c r="N144" t="n">
-        <v>1.88476</v>
+        <v>2.196</v>
       </c>
       <c r="O144" t="n">
         <v>1811751.109</v>
@@ -13369,13 +13369,13 @@
         <v>1.15</v>
       </c>
       <c r="G161" t="n">
-        <v>1.14348052654985</v>
+        <v>1.16169056457151</v>
       </c>
       <c r="H161" t="n">
-        <v>2.2</v>
+        <v>2.42086032457453</v>
       </c>
       <c r="I161" t="n">
-        <v>1.94</v>
+        <v>2.14</v>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
@@ -13383,10 +13383,10 @@
         <v>1.6</v>
       </c>
       <c r="M161" t="n">
-        <v>1.66281</v>
+        <v>1.676</v>
       </c>
       <c r="N161" t="n">
-        <v>1.8</v>
+        <v>1.924</v>
       </c>
       <c r="O161" t="n">
         <v>1811751.109</v>
